--- a/biology/Botanique/Justicia_telloensis/Justicia_telloensis.xlsx
+++ b/biology/Botanique/Justicia_telloensis/Justicia_telloensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justicia telloensis Hedrén [2] est une espèce de plantes de la famille des Acanthaceae et du genre Justicia, endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justicia telloensis Hedrén  est une espèce de plantes de la famille des Acanthaceae et du genre Justicia, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique telloensis fait référence à la localité de Tello dans l'Adamaoua où le premier spécimen a été collecté près des chutes du même nom[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique telloensis fait référence à la localité de Tello dans l'Adamaoua où le premier spécimen a été collecté près des chutes du même nom.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe qui peut atteindre un mètre de hauteur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe qui peut atteindre un mètre de hauteur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, très rare, elle n'a été récoltée que sur deux sites, aux chutes de Tello (1964 et 1967) et au cratère de Mbi (Région du Nord-Ouest) en 1998[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, très rare, elle n'a été récoltée que sur deux sites, aux chutes de Tello (1964 et 1967) et au cratère de Mbi (Région du Nord-Ouest) en 1998.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce en danger (EN) qui figure sur la liste rouge de l'UICN[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce en danger (EN) qui figure sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
